--- a/development/07-connections/B2.xlsx
+++ b/development/07-connections/B2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Desktop\Graduation-project\development\07-connections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\Graduation-project\development\07-connections\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="11508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="103">
   <si>
     <t>web length</t>
   </si>
@@ -525,15 +525,9 @@
     <t>stiffener thickness , m direction</t>
   </si>
   <si>
-    <t>stiffener length , m direction</t>
-  </si>
-  <si>
     <t>stiffener thickness , n direction</t>
   </si>
   <si>
-    <t>stiffener length , n direction</t>
-  </si>
-  <si>
     <t>stiffeners count , m direction</t>
   </si>
   <si>
@@ -550,6 +544,27 @@
   </si>
   <si>
     <t>total inertia , Ix , n direction</t>
+  </si>
+  <si>
+    <t>m direction stiffneres , flanges plan perpendicular stiffeners</t>
+  </si>
+  <si>
+    <t>n direction stiffners , web plan perpendicular stiffeners , welded on flages</t>
+  </si>
+  <si>
+    <t>Qx</t>
+  </si>
+  <si>
+    <t>Qy</t>
+  </si>
+  <si>
+    <t>stiffeners to plate weld is fixed to minimum weld thickness = 4 mm</t>
+  </si>
+  <si>
+    <t>stiffeners to plate weld area</t>
+  </si>
+  <si>
+    <t>stiffeners height , hst</t>
   </si>
   <si>
     <r>
@@ -564,7 +579,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>L</t>
+      <t>b</t>
     </r>
     <r>
       <rPr>
@@ -579,20 +594,20 @@
     </r>
   </si>
   <si>
-    <t>m direction stiffneres , flanges plan perpendicular stiffeners</t>
-  </si>
-  <si>
-    <t>stiffeners height , bst</t>
-  </si>
-  <si>
-    <t>n direction stiffners , web plan perpendicular stiffeners , welded on flages</t>
+    <t>min stifferer plan length , bst,min</t>
+  </si>
+  <si>
+    <t>stiffener height , n direction</t>
+  </si>
+  <si>
+    <t>stiffener height , m direction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -700,8 +715,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,6 +746,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -867,12 +901,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -943,8 +978,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
@@ -1251,14 +1293,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>250372</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>196023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>120326</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>147540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1289,13 +1331,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>566057</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>82558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1349830</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>179015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1629,27 +1671,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.109375" customWidth="1"/>
-    <col min="23" max="23" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.140625" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>34</v>
       </c>
@@ -1664,7 +1706,7 @@
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
       <c r="Q1" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R1" s="18"/>
       <c r="S1" s="18"/>
@@ -1675,7 +1717,7 @@
       <c r="V1" s="18"/>
       <c r="W1" s="18"/>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1693,7 +1735,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
     </row>
-    <row r="3" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1714,11 +1756,11 @@
         <v>15</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="R3" s="9" t="str">
-        <f>IF((B7-L3)/2-L12&gt;0,(B7-L3)/2-L12,"no stiffeners required ")</f>
-        <v xml:space="preserve">no stiffeners required </v>
+        <v>99</v>
+      </c>
+      <c r="R3" s="9">
+        <f>IF((B7-L3)/2-L12&gt;0,(B7-L3)/2-L12,0)</f>
+        <v>0</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>15</v>
@@ -1727,14 +1769,14 @@
         <v>44</v>
       </c>
       <c r="V3" s="2">
-        <f>(PI()*B15*B15/4)/100</f>
+        <f>(PI()*B17*B17/4)/100</f>
         <v>0.78539816339744828</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
@@ -1755,10 +1797,10 @@
         <v>15</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R4" s="9">
-        <f>IF(B19&gt;0, IF(B21, B21, _xlfn.CEILING.MATH(L3/3)), 0)</f>
+        <f>IF(B21&gt;0, IF(B23, B23, _xlfn.CEILING.MATH(L3/3)), 0)</f>
         <v>0</v>
       </c>
       <c r="S4" s="3" t="s">
@@ -1768,14 +1810,14 @@
         <v>42</v>
       </c>
       <c r="V4" s="2">
-        <f>0.35 * B15 * 0.85 *V3</f>
+        <f>0.35 * B17 * 0.85 *V3</f>
         <v>2.3365595361074085</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1799,7 +1841,7 @@
         <v>81</v>
       </c>
       <c r="R5" s="2">
-        <f>IF(B19 &gt;0, R4/16, 0)</f>
+        <f>IF(B21 &gt;0, R4/16, 0)</f>
         <v>0</v>
       </c>
       <c r="S5" s="3" t="s">
@@ -1809,14 +1851,14 @@
         <v>48</v>
       </c>
       <c r="V5" s="2">
-        <f>B15*B12*0.1*0.85*1.2*B14</f>
+        <f>B17*B14*0.1*0.85*1.2*B16</f>
         <v>10.608000000000001</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1840,7 +1882,7 @@
         <v>80</v>
       </c>
       <c r="R6" s="9">
-        <f>MAX(B20,R5)</f>
+        <f>MAX(B22,R5)</f>
         <v>1.5</v>
       </c>
       <c r="S6" s="3" t="s">
@@ -1857,7 +1899,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1891,14 +1933,14 @@
         <v>53</v>
       </c>
       <c r="V7" s="2">
-        <f>V6*B16</f>
+        <f>V6*B18</f>
         <v>4.673119072214817</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1927,14 +1969,14 @@
         <v>67</v>
       </c>
       <c r="V8" s="2">
-        <f>MIN(300, 20*B15) / 10</f>
+        <f>MIN(300, 20*B17) / 10</f>
         <v>20</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1968,28 +2010,28 @@
         <v>33</v>
       </c>
       <c r="V9" s="2" t="str">
-        <f>IF(V7&gt;B10, "safe", "unsafe")</f>
+        <f>IF(V7&gt;B12, "safe", "unsafe")</f>
         <v>safe</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="B10" s="5">
         <v>0.5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="L10" s="2">
-        <f>B12*B8</f>
+        <f>B14*B8</f>
         <v>128</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -1999,28 +2041,28 @@
         <v>73</v>
       </c>
       <c r="R10" s="2" t="e">
-        <f>R9/B19</f>
+        <f>R9/B21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="B11" s="5">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="L11" s="2">
-        <f>B8*POWER(B12,3)/12</f>
+        <f>B8*POWER(B14,3)/12</f>
         <v>42.666666666666664</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -2037,21 +2079,22 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5">
-        <v>2</v>
+        <f>POWER(POWER(B10,2)+POWER(B11,2),0.5)</f>
+        <v>0.5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>83</v>
       </c>
       <c r="L12" s="9">
-        <f>POWER(L21*POWER(B12,3)/(6*L19),0.5)</f>
+        <f>POWER(L21*POWER(B14,3)/(6*L19),0.5)</f>
         <v>6.7279686972144628</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -2073,15 +2116,15 @@
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
     </row>
-    <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3.6</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="5">
+        <v>77</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>68</v>
@@ -2102,15 +2145,15 @@
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
     </row>
-    <row r="14" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="2">
-        <v>5.2</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>21</v>
@@ -2134,23 +2177,30 @@
         <v>55</v>
       </c>
       <c r="V14" s="2">
-        <f>0.2 * B14</f>
+        <f>0.2 * B16</f>
         <v>1.04</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="5">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3.6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
       <c r="K15" s="4" t="s">
         <v>22</v>
       </c>
@@ -2165,7 +2215,7 @@
         <v>32</v>
       </c>
       <c r="R15" s="2">
-        <f>R5*R4*B19</f>
+        <f>R5*R4*B21</f>
         <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
@@ -2175,23 +2225,28 @@
         <v>57</v>
       </c>
       <c r="V15" s="2">
-        <f>2*B5+2*(B5-B4-2)-B19*2*R6</f>
+        <f>2*B5+2*(B5-B4-2)-B21*2*R6</f>
         <v>90</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="5">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5.2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
       <c r="K16" s="4" t="s">
         <v>38</v>
       </c>
@@ -2223,16 +2278,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B17" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
       <c r="K17" s="4" t="s">
         <v>39</v>
       </c>
@@ -2244,52 +2304,62 @@
         <v>23</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="V17" s="2">
-        <f>B9/(V15*B17 + V16*B18)</f>
-        <v>0.91101694915254239</v>
+        <f>(B24*R21*0.4*2+B21*(R3-B19)*0.4*2)*2</f>
+        <v>42.470500168913723</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B18" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
       <c r="K18" s="19" t="s">
         <v>70</v>
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="21"/>
-      <c r="U18" s="4" t="s">
-        <v>63</v>
+      <c r="U18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="V18" s="2">
-        <f>B10/(V15*B17 + V16*B18)</f>
-        <v>2.1186440677966102E-3</v>
+        <f>B9/(V15*B19 + V16*B20+V17)</f>
+        <v>0.87801511350567418</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B19" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
       <c r="K19" s="4" t="s">
         <v>13</v>
       </c>
@@ -2301,128 +2371,158 @@
         <v>18</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="R19" s="13"/>
       <c r="S19" s="14"/>
       <c r="U19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V19" s="2">
-        <f>POWER(POWER(V17,2) +3*POWER(V18,2),0.5)</f>
-        <v>0.91102433974140562</v>
+        <f>B12/(V15*B19 + V16*B20+V17)</f>
+        <v>2.0418956128038933E-3</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B20" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>15</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
       <c r="K20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="8" t="str">
-        <f>IF(L19*1000 &lt; B11, "safe", "unsafe")</f>
+        <f>IF(L19*1000 &lt; B13, "safe", "unsafe")</f>
         <v>safe</v>
       </c>
       <c r="M20" s="3"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="16"/>
       <c r="S20" s="17"/>
-      <c r="U20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="V20" s="2" t="str">
-        <f>IF(AND(MAX(V17:V18) &lt; V14, V19 &lt; V14*1.1), "safe", "unsafe")</f>
-        <v>safe</v>
-      </c>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V20" s="2">
+        <f>POWER(POWER(V18,2) +3*POWER(V19,2),0.5)</f>
+        <v>0.87802223636845478</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" s="5">
-        <v>20</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
       <c r="K21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L21" s="2">
-        <f>B13*0.72</f>
+        <f>B15*0.72</f>
         <v>2.5920000000000001</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="R21" s="9">
-        <f>IF((B8-B5)/2 - L12 &gt; 0, (B8-B5)/2 - L12, "no stiffeners required")</f>
+        <f>IF((B8-B5)/2 - L12 &gt; 0, (B8-B5)/2 - L12, 0)</f>
         <v>13.272031302785537</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="V21" s="2" t="str">
+        <f>IF(AND(MAX(V18:V19) &lt; V14, V20 &lt; V14*1.1), "safe", "unsafe")</f>
+        <v>safe</v>
+      </c>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="K22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="2">
+        <f>(L10*B14/2 + B21 * R15 * (R4/2 +B14)) / ( L10 +B21*R15)</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R22" s="9">
+        <f>IF(B24&gt;0, IF(B26, B26, _xlfn.CEILING.MATH(L3/3)), 0)</f>
+        <v>24</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="5">
+        <v>20</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="K23" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="5">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L22" s="2">
-        <f>(L10*B12/2 + B19 * R15 * (R4/2 +B12)) / ( L10 +B19*R15)</f>
-        <v>1</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="R22" s="9">
-        <f>IF(B22&gt;0, IF(B24, B24, _xlfn.CEILING.MATH(L3/3)), 0)</f>
-        <v>24</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="5">
-        <v>2</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="L23" s="2">
-        <f>L11+B19*R16+L10*POWER(B12/2-L22,2)+B19*R15*POWER(B12+R4/2-L22,2)</f>
+        <f>L11+B21*R16+L10*POWER(B14/2-L22,2)+B21*R15*POWER(B14+R4/2-L22,2)</f>
         <v>42.666666666666664</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -2432,28 +2532,28 @@
         <v>81</v>
       </c>
       <c r="R23" s="2">
-        <f>IF(B22 &gt;0, R22/16, 0)</f>
+        <f>IF(B24 &gt;0, R22/16, 0)</f>
         <v>1.5</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B24" s="5">
-        <v>24</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L24" s="2">
-        <f>L17 * MAX(B12+R4-L22,L22) / L23</f>
+        <f>L17 * MAX(B14+R4-L22,L22) / L23</f>
         <v>1.9596513227982966</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -2463,19 +2563,28 @@
         <v>80</v>
       </c>
       <c r="R24" s="9">
-        <f>MAX(B23,R23)</f>
+        <f>MAX(B25,R23)</f>
         <v>2</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="K25" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L25" s="2">
-        <f>(L10*B12/2 + B22 * R33 * (R22/2 +B12)) / ( L10 +B22*R33)</f>
+        <f>(L10*B14/2 + B24 * R33 * (R22/2 +B14)) / ( L10 +B24*R33)</f>
         <v>7.882352941176471</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -2492,12 +2601,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="5">
+        <v>24</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="K26" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L26" s="2">
-        <f>L11+B22*R34+L10*POWER(B12/2-L25,2)+B22*R33*POWER(B12+R22/2-L25,2)</f>
+        <f>L11+B24*R34+L10*POWER(B14/2-L25,2)+B24*R33*POWER(B14+R22/2-L25,2)</f>
         <v>14950.901960784315</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -2514,12 +2632,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K27" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L27" s="2">
-        <f>L16 * (B12/2) / L26</f>
+        <f>L16 * (B14/2) / L26</f>
         <v>5.6371180963572264E-2</v>
       </c>
       <c r="M27" s="3" t="s">
@@ -2536,7 +2654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="K28" s="4" t="s">
         <v>33</v>
       </c>
@@ -2549,14 +2667,14 @@
         <v>73</v>
       </c>
       <c r="R28" s="2">
-        <f>R27/B22</f>
+        <f>R27/B24</f>
         <v>37.625</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="Q29" s="4" t="s">
         <v>75</v>
       </c>
@@ -2568,7 +2686,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="Q30" s="4" t="s">
         <v>78</v>
       </c>
@@ -2580,7 +2698,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="Q31" s="4" t="s">
         <v>77</v>
       </c>
@@ -2592,7 +2710,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q32" s="4" t="s">
         <v>79</v>
       </c>
@@ -2602,19 +2720,19 @@
       </c>
       <c r="S32" s="3"/>
     </row>
-    <row r="33" spans="17:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="Q33" s="4" t="s">
         <v>32</v>
       </c>
       <c r="R33" s="2">
-        <f>R23*R22*B22</f>
+        <f>R23*R22*B24</f>
         <v>72</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="17:19" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="34" spans="17:19" ht="26.25" x14ac:dyDescent="0.4">
       <c r="Q34" s="4" t="s">
         <v>31</v>
       </c>
@@ -2627,7 +2745,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="Q19:S20"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="K1:M2"/>
@@ -2638,6 +2756,7 @@
     <mergeCell ref="F1:H2"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="Q1:S2"/>
+    <mergeCell ref="E15:I23"/>
   </mergeCells>
   <conditionalFormatting sqref="V7:V9">
     <cfRule type="cellIs" dxfId="21" priority="28" operator="lessThan">
@@ -2663,7 +2782,7 @@
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18:V19">
+  <conditionalFormatting sqref="V19:V20">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2671,7 +2790,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V19">
+  <conditionalFormatting sqref="V20">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
@@ -2679,7 +2798,7 @@
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V20">
+  <conditionalFormatting sqref="V21">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
@@ -2711,7 +2830,7 @@
       <formula>"unsafe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="B22">
     <cfRule type="cellIs" dxfId="3" priority="31" operator="lessThan">
       <formula>$R$5</formula>
     </cfRule>
@@ -2724,15 +2843,15 @@
       <formula>"unsafe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>$R$23</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
       <formula1>0</formula1>
-      <formula2>MIN(B6,B12)</formula2>
+      <formula2>MIN(B6,B14)</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2745,7 +2864,7 @@
           <x14:formula1>
             <xm:f>'n direction stiffiners count'!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B22</xm:sqref>
+          <xm:sqref>B24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2761,14 +2880,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
